--- a/Pilot_Input_Crop_Calendar.xlsx
+++ b/Pilot_Input_Crop_Calendar.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="111">
   <si>
     <t>Mode</t>
   </si>
@@ -89,37 +89,10 @@
     <t>15/12</t>
   </si>
   <si>
-    <t>Algeria</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>Libya</t>
-  </si>
-  <si>
-    <t>Tot. area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAEZ </t>
-  </si>
-  <si>
-    <t>Irrigated area in SASS (ha)</t>
-  </si>
-  <si>
-    <t>OSS 2012*</t>
-  </si>
-  <si>
     <t>*</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: OSS 2015 - For better valorization of irrigation water in the SASS report. The primary source is MEWINA 2014 </t>
-  </si>
-  <si>
     <t>Growth stage</t>
-  </si>
-  <si>
-    <t>Crop name: DATEPALM</t>
   </si>
   <si>
     <t>Init</t>
@@ -403,9 +376,6 @@
     <t>05/04</t>
   </si>
   <si>
-    <t>unimodal</t>
-  </si>
-  <si>
     <t>06/04</t>
   </si>
   <si>
@@ -467,6 +437,12 @@
   </si>
   <si>
     <t>31/12</t>
+  </si>
+  <si>
+    <t>Crop name: Sample</t>
+  </si>
+  <si>
+    <t>region_1</t>
   </si>
 </sst>
 </file>
@@ -584,7 +560,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -614,19 +590,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -649,8 +612,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -659,97 +624,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1017,15 +891,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1033,7 +898,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1045,199 +910,177 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1246,13 +1089,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1538,7 +1381,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1555,75 +1400,75 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85" t="s">
-        <v>103</v>
-      </c>
-      <c r="C1" s="86" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1" s="85" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" s="86" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" s="87" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="88" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="89" t="s">
-        <v>52</v>
-      </c>
-      <c r="I1" s="90" t="s">
-        <v>53</v>
-      </c>
-      <c r="J1" s="91" t="s">
-        <v>54</v>
-      </c>
-      <c r="K1" s="92" t="s">
-        <v>55</v>
+      <c r="B1" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="72" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="71" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="72" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="75" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="77" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="78" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="93" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" s="93" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="94" t="s">
-        <v>115</v>
-      </c>
-      <c r="F2" s="93" t="s">
+      <c r="C2" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="79" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="94" t="s">
-        <v>116</v>
-      </c>
-      <c r="H2" s="93" t="s">
-        <v>117</v>
-      </c>
-      <c r="I2" s="94" t="s">
-        <v>59</v>
-      </c>
-      <c r="J2" s="93" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" s="94" t="s">
+      <c r="G2" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" s="79" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="79" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="80" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1636,8 +1481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39:C39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1651,222 +1496,222 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" s="43" t="s">
-        <v>55</v>
+      <c r="B1" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="45" t="s">
+      <c r="B2" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="45" t="s">
+      <c r="G2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="45" t="s">
+      <c r="I2" s="31" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="89" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="91"/>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="88"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="21">
+        <v>150</v>
+      </c>
+      <c r="D8" s="22">
+        <v>35</v>
+      </c>
+      <c r="E8" s="22">
+        <v>150</v>
+      </c>
+      <c r="F8" s="23">
+        <v>30</v>
+      </c>
+      <c r="G8" s="24">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="101" t="s">
+      <c r="B9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="103"/>
-    </row>
-    <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="100"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="39" t="s">
+      <c r="C9" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="E9" s="14">
+        <v>1</v>
+      </c>
+      <c r="F9" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="B10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="41" t="s">
+      <c r="C10" s="15">
+        <v>2</v>
+      </c>
+      <c r="D10" s="14">
+        <v>2</v>
+      </c>
+      <c r="E10" s="14">
+        <v>2</v>
+      </c>
+      <c r="F10" s="16">
+        <v>2</v>
+      </c>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="B11" s="11" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="C11" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:17" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="35">
-        <v>150</v>
-      </c>
-      <c r="D8" s="36">
-        <v>35</v>
-      </c>
-      <c r="E8" s="36">
-        <v>150</v>
-      </c>
-      <c r="F8" s="37">
-        <v>30</v>
-      </c>
-      <c r="G8" s="38">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="29">
+      <c r="B12" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="17">
         <v>0.8</v>
       </c>
-      <c r="D9" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="28">
-        <v>1</v>
-      </c>
-      <c r="F9" s="30">
+      <c r="D12" s="18">
         <v>0.8</v>
       </c>
-      <c r="G9" s="27"/>
-    </row>
-    <row r="10" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="29">
-        <v>2</v>
-      </c>
-      <c r="D10" s="28">
-        <v>2</v>
-      </c>
-      <c r="E10" s="28">
-        <v>2</v>
-      </c>
-      <c r="F10" s="30">
-        <v>2</v>
-      </c>
-      <c r="G10" s="27"/>
-    </row>
-    <row r="11" spans="1:17" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="D11" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="E11" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="F11" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="G11" s="27"/>
-    </row>
-    <row r="12" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="31">
+      <c r="E12" s="18">
         <v>0.8</v>
       </c>
-      <c r="D12" s="32">
+      <c r="F12" s="19">
         <v>0.8</v>
       </c>
-      <c r="E12" s="32">
-        <v>0.8</v>
-      </c>
-      <c r="F12" s="33">
-        <v>0.8</v>
-      </c>
-      <c r="G12" s="26">
+      <c r="G12" s="12">
         <v>0.8</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1880,497 +1725,497 @@
       <c r="Q15"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" s="104" t="s">
+      <c r="A18" s="92" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" s="93"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20" s="93"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21" s="93"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+    </row>
+    <row r="22" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="93"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+    </row>
+    <row r="23" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="93"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
+      <c r="M23" s="94" t="s">
+        <v>78</v>
+      </c>
+      <c r="N23" s="94" t="s">
+        <v>71</v>
+      </c>
+      <c r="O23" s="84" t="s">
+        <v>79</v>
+      </c>
+      <c r="P23" s="85"/>
+      <c r="Q23" s="85"/>
+      <c r="R23" s="86"/>
+    </row>
+    <row r="24" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="93"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="95"/>
+      <c r="O24" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="P24" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q24" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="R24" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="S24" s="51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25" s="93"/>
+      <c r="B25" s="93"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
+      <c r="M25" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="N25" s="67">
+        <v>31</v>
+      </c>
+      <c r="O25" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="P25" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q25" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="R25" s="62"/>
+      <c r="S25" s="54" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26" s="93"/>
+      <c r="B26" s="93"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="93"/>
+      <c r="M26" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="N26" s="68">
+        <v>28</v>
+      </c>
+      <c r="O26" s="41"/>
+      <c r="P26" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="55"/>
+      <c r="S26" s="55"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="M27" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="105"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="105"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" s="105"/>
-      <c r="B19" s="105"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="105"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="105"/>
-      <c r="B20" s="105"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="105"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" s="105"/>
-      <c r="B21" s="105"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="105"/>
-    </row>
-    <row r="22" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="105"/>
-      <c r="B22" s="105"/>
-      <c r="C22" s="105"/>
-      <c r="D22" s="105"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="105"/>
-    </row>
-    <row r="23" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="105"/>
-      <c r="B23" s="105"/>
-      <c r="C23" s="105"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="105"/>
-      <c r="M23" s="106" t="s">
+      <c r="N27" s="68">
+        <v>31</v>
+      </c>
+      <c r="O27" s="41"/>
+      <c r="P27" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q27" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="R27" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="S27" s="55"/>
+    </row>
+    <row r="28" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M28" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="N28" s="68">
+        <v>30</v>
+      </c>
+      <c r="O28" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="P28" s="44"/>
+      <c r="Q28" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="R28" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="S28" s="56" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="H29" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="I29" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="M29" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="N29" s="68">
+        <v>31</v>
+      </c>
+      <c r="O29" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="52"/>
+      <c r="S29" s="57" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="N23" s="106" t="s">
-        <v>80</v>
-      </c>
-      <c r="O23" s="96" t="s">
+      <c r="F30" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="P23" s="97"/>
-      <c r="Q23" s="97"/>
-      <c r="R23" s="98"/>
-    </row>
-    <row r="24" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="105"/>
-      <c r="B24" s="105"/>
-      <c r="C24" s="105"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="105"/>
-      <c r="M24" s="107"/>
-      <c r="N24" s="107"/>
-      <c r="O24" s="63" t="s">
+      <c r="G30" s="80" t="s">
+        <v>89</v>
+      </c>
+      <c r="H30" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="I30" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="P24" s="65" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q24" s="64" t="s">
-        <v>91</v>
-      </c>
-      <c r="R24" s="65" t="s">
-        <v>94</v>
-      </c>
-      <c r="S24" s="65" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" s="105"/>
-      <c r="B25" s="105"/>
-      <c r="C25" s="105"/>
-      <c r="D25" s="105"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="105"/>
-      <c r="M25" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="N25" s="81">
-        <v>31</v>
-      </c>
-      <c r="O25" s="54" t="s">
-        <v>86</v>
-      </c>
-      <c r="P25" s="54" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q25" s="75" t="s">
-        <v>84</v>
-      </c>
-      <c r="R25" s="76"/>
-      <c r="S25" s="68" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26" s="105"/>
-      <c r="B26" s="105"/>
-      <c r="C26" s="105"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="105"/>
-      <c r="M26" s="79" t="s">
-        <v>69</v>
-      </c>
-      <c r="N26" s="82">
-        <v>28</v>
-      </c>
-      <c r="O26" s="55"/>
-      <c r="P26" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q26" s="58"/>
-      <c r="R26" s="69"/>
-      <c r="S26" s="69"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="M27" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="N27" s="82">
-        <v>31</v>
-      </c>
-      <c r="O27" s="55"/>
-      <c r="P27" s="57" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q27" s="59" t="s">
-        <v>81</v>
-      </c>
-      <c r="R27" s="70" t="s">
-        <v>85</v>
-      </c>
-      <c r="S27" s="69"/>
-    </row>
-    <row r="28" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="M28" s="79" t="s">
-        <v>71</v>
-      </c>
-      <c r="N28" s="82">
+      <c r="M30" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="N30" s="68">
         <v>30</v>
       </c>
-      <c r="O28" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="P28" s="58"/>
-      <c r="Q28" s="54" t="s">
-        <v>86</v>
-      </c>
-      <c r="R28" s="71" t="s">
-        <v>84</v>
-      </c>
-      <c r="S28" s="70" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A29" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="E29" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="F29" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="G29" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="H29" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="I29" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="M29" s="79" t="s">
-        <v>72</v>
-      </c>
-      <c r="N29" s="82">
-        <v>31</v>
-      </c>
-      <c r="O29" s="57" t="s">
-        <v>84</v>
-      </c>
-      <c r="P29" s="58"/>
-      <c r="Q29" s="55"/>
-      <c r="R29" s="66"/>
-      <c r="S29" s="71" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="93" t="s">
-        <v>102</v>
-      </c>
-      <c r="C30" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="F30" s="93" t="s">
-        <v>98</v>
-      </c>
-      <c r="G30" s="94" t="s">
-        <v>99</v>
-      </c>
-      <c r="H30" s="93" t="s">
-        <v>101</v>
-      </c>
-      <c r="I30" s="94" t="s">
-        <v>100</v>
-      </c>
-      <c r="M30" s="79" t="s">
+      <c r="O30" s="44"/>
+      <c r="P30" s="44"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="52"/>
+      <c r="S30" s="52"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="N30" s="82">
-        <v>30</v>
-      </c>
-      <c r="O30" s="58"/>
-      <c r="P30" s="58"/>
-      <c r="Q30" s="55"/>
-      <c r="R30" s="66"/>
-      <c r="S30" s="66"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>82</v>
+      <c r="D31" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="H31">
         <v>30</v>
       </c>
-      <c r="M31" s="79" t="s">
+      <c r="M31" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="N31" s="68">
+        <v>31</v>
+      </c>
+      <c r="O31" s="44"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="52"/>
+      <c r="S31" s="52"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="M32" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="N32" s="68">
+        <v>31</v>
+      </c>
+      <c r="O32" s="44"/>
+      <c r="P32" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="52"/>
+      <c r="S32" s="52"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M33" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="N33" s="68">
+        <v>30</v>
+      </c>
+      <c r="O33" s="44"/>
+      <c r="P33" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q33" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="R33" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="S33" s="52"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M34" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="N34" s="68">
+        <v>31</v>
+      </c>
+      <c r="O34" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="R34" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="S34" s="53" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M35" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="N35" s="68">
+        <v>30</v>
+      </c>
+      <c r="O35" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="44"/>
+      <c r="R35" s="55"/>
+      <c r="S35" s="54" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M36" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="N36" s="69">
+        <v>31</v>
+      </c>
+      <c r="O36" s="46"/>
+      <c r="P36" s="58"/>
+      <c r="Q36" s="60"/>
+      <c r="R36" s="63"/>
+      <c r="S36" s="55"/>
+    </row>
+    <row r="37" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="81" t="s">
+        <v>104</v>
+      </c>
+      <c r="M37" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="N37" s="59" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A38" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="G38" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="H38" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="I38" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="M38" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="N38" s="59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="F39" s="79" t="s">
+        <v>107</v>
+      </c>
+      <c r="G39" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="H39" s="79" t="s">
+        <v>49</v>
+      </c>
+      <c r="I39" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="M39" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="N39" s="59" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="N31" s="82">
-        <v>31</v>
-      </c>
-      <c r="O31" s="58"/>
-      <c r="P31" s="58"/>
-      <c r="Q31" s="54"/>
-      <c r="R31" s="66"/>
-      <c r="S31" s="66"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="M32" s="79" t="s">
-        <v>75</v>
-      </c>
-      <c r="N32" s="82">
-        <v>31</v>
-      </c>
-      <c r="O32" s="58"/>
-      <c r="P32" s="59" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q32" s="54"/>
-      <c r="R32" s="66"/>
-      <c r="S32" s="66"/>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A33" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="M33" s="79" t="s">
-        <v>76</v>
-      </c>
-      <c r="N33" s="82">
-        <v>30</v>
-      </c>
-      <c r="O33" s="58"/>
-      <c r="P33" s="54" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q33" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="R33" s="67" t="s">
-        <v>81</v>
-      </c>
-      <c r="S33" s="66"/>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A34" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="M34" s="79" t="s">
-        <v>77</v>
-      </c>
-      <c r="N34" s="82">
-        <v>31</v>
-      </c>
-      <c r="O34" s="59" t="s">
-        <v>81</v>
-      </c>
-      <c r="P34" s="55"/>
-      <c r="Q34" s="57" t="s">
-        <v>84</v>
-      </c>
-      <c r="R34" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="S34" s="67" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A35" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="M35" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="N35" s="82">
-        <v>30</v>
-      </c>
-      <c r="O35" s="54" t="s">
-        <v>86</v>
-      </c>
-      <c r="P35" s="55"/>
-      <c r="Q35" s="58"/>
-      <c r="R35" s="69"/>
-      <c r="S35" s="68" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M36" s="80" t="s">
-        <v>79</v>
-      </c>
-      <c r="N36" s="83">
-        <v>31</v>
-      </c>
-      <c r="O36" s="60"/>
-      <c r="P36" s="72"/>
-      <c r="Q36" s="74"/>
-      <c r="R36" s="77"/>
-      <c r="S36" s="69"/>
-    </row>
-    <row r="37" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="95" t="s">
-        <v>114</v>
-      </c>
-      <c r="M37" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="N37" s="73" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A38" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="C38" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="E38" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="F38" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="G38" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="H38" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="I38" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="M38" s="73" t="s">
-        <v>93</v>
-      </c>
-      <c r="N38" s="73" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" s="93" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" s="94" t="s">
-        <v>115</v>
-      </c>
-      <c r="D39" s="93" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="94" t="s">
-        <v>116</v>
-      </c>
-      <c r="F39" s="93" t="s">
-        <v>117</v>
-      </c>
-      <c r="G39" s="94" t="s">
-        <v>59</v>
-      </c>
-      <c r="H39" s="93" t="s">
-        <v>58</v>
-      </c>
-      <c r="I39" s="94" t="s">
-        <v>7</v>
-      </c>
-      <c r="M39" s="73" t="s">
-        <v>112</v>
-      </c>
-      <c r="N39" s="73" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A40" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D40" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="F40" s="21" t="s">
-        <v>82</v>
+      <c r="F40" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="H40">
         <v>30</v>
@@ -2395,7 +2240,7 @@
   <dimension ref="C1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2470,68 +2315,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="108" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="108"/>
-      <c r="E17" s="108"/>
-    </row>
-    <row r="18" spans="3:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="17"/>
-      <c r="D18" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>26</v>
-      </c>
+    <row r="17" spans="3:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C19" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="13">
-        <v>20200</v>
-      </c>
-      <c r="E19" s="10"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C20" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="14">
-        <v>38000</v>
-      </c>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="3:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="15">
-        <v>30000</v>
-      </c>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="3:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="16">
-        <f>D21+D20+D19</f>
-        <v>88200</v>
-      </c>
-      <c r="E22" s="9">
-        <v>359061.20781100052</v>
-      </c>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D22" s="83"/>
+      <c r="E22" s="83"/>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C24" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Pilot_Input_Crop_Calendar.xlsx
+++ b/Pilot_Input_Crop_Calendar.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="108">
   <si>
     <t>Mode</t>
   </si>
@@ -391,18 +391,6 @@
     <t>05/10</t>
   </si>
   <si>
-    <t>init1_start</t>
-  </si>
-  <si>
-    <t>init1_end</t>
-  </si>
-  <si>
-    <t>init2_start</t>
-  </si>
-  <si>
-    <t>init2_end</t>
-  </si>
-  <si>
     <t>kc</t>
   </si>
   <si>
@@ -436,13 +424,16 @@
     <t>05/05</t>
   </si>
   <si>
-    <t>31/12</t>
-  </si>
-  <si>
     <t>Crop name: Sample</t>
   </si>
   <si>
     <t>region_1</t>
+  </si>
+  <si>
+    <t>30/10</t>
+  </si>
+  <si>
+    <t>30/12</t>
   </si>
 </sst>
 </file>
@@ -1379,96 +1370,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="11.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="3"/>
+    <col min="1" max="3" width="11.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="71" t="s">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="C1" s="72" t="s">
-        <v>94</v>
-      </c>
-      <c r="D1" s="71" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="72" t="s">
-        <v>96</v>
-      </c>
-      <c r="F1" s="73" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="74" t="s">
+      <c r="E1" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="75" t="s">
+      <c r="F1" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="76" t="s">
+      <c r="G1" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="77" t="s">
+      <c r="H1" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="78" t="s">
+      <c r="I1" s="78" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B2" s="79" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="C2" s="80" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D2" s="79" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="E2" s="80" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F2" s="79" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="G2" s="80" t="s">
         <v>106</v>
       </c>
       <c r="H2" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="I2" s="80" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="79" t="s">
-        <v>49</v>
-      </c>
-      <c r="K2" s="80" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1556,7 +1531,7 @@
         <v>23</v>
       </c>
       <c r="B6" s="89" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C6" s="90"/>
       <c r="D6" s="90"/>
@@ -1699,19 +1674,19 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1815,7 +1790,7 @@
         <v>85</v>
       </c>
       <c r="S24" s="51" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
@@ -2125,7 +2100,7 @@
     </row>
     <row r="37" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="81" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="M37" s="59" t="s">
         <v>22</v>
@@ -2177,16 +2152,16 @@
         <v>2</v>
       </c>
       <c r="C39" s="80" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D39" s="79" t="s">
         <v>8</v>
       </c>
       <c r="E39" s="80" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F39" s="79" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G39" s="80" t="s">
         <v>50</v>
@@ -2198,10 +2173,10 @@
         <v>7</v>
       </c>
       <c r="M39" s="59" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N39" s="59" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
